--- a/Team-Data/2008-09/1-15-2008-09.xlsx
+++ b/Team-Data/2008-09/1-15-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,25 +814,25 @@
         <v>16</v>
       </c>
       <c r="AE2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="n">
         <v>9</v>
       </c>
-      <c r="AF2" t="n">
-        <v>10</v>
-      </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -774,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
@@ -795,16 +862,16 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -816,7 +883,7 @@
         <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -848,82 +915,82 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.775</v>
+        <v>0.78</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="O3" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P3" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U3" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V3" t="n">
         <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
         <v>23.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -950,13 +1017,13 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>5</v>
@@ -965,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -980,13 +1047,13 @@
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -995,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1120,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1141,10 +1208,10 @@
         <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -1224,16 +1291,16 @@
         <v>0.436</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
         <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>83.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
@@ -1242,67 +1309,67 @@
         <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.378</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S5" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T5" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
         <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
@@ -1311,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1320,19 +1387,19 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
         <v>15</v>
@@ -1341,7 +1408,7 @@
         <v>15</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>18</v>
@@ -1353,16 +1420,16 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -1406,76 +1473,76 @@
         <v>0.833</v>
       </c>
       <c r="H6" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J6" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="L6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M6" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.36</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R6" t="n">
         <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U6" t="n">
         <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
         <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
@@ -1484,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
         <v>8</v>
@@ -1496,22 +1563,22 @@
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
         <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR6" t="n">
         <v>20</v>
@@ -1529,19 +1596,19 @@
         <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BB6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1705,16 +1772,16 @@
         <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>9</v>
@@ -1726,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -1758,85 +1825,85 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
         <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.675</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J8" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
         <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="O8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="P8" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V8" t="n">
         <v>15.4</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>5.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.2</v>
+        <v>103.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,25 +1915,25 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>24</v>
@@ -1893,10 +1960,10 @@
         <v>23</v>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
@@ -1911,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -2054,7 +2121,7 @@
         <v>25</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
         <v>26</v>
@@ -2066,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2224,10 +2291,10 @@
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>22</v>
@@ -2239,13 +2306,13 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>7</v>
@@ -2257,7 +2324,7 @@
         <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2403,10 +2470,10 @@
         <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>10</v>
@@ -2439,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2457,7 +2524,7 @@
         <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2588,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
         <v>8</v>
@@ -2597,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP12" t="n">
         <v>25</v>
@@ -2606,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
@@ -2627,10 +2694,10 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>14</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2849,7 @@
         <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>25</v>
@@ -2791,7 +2858,7 @@
         <v>6</v>
       </c>
       <c r="AS13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
         <v>12</v>
@@ -2800,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>15</v>
@@ -2809,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
         <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,61 +2944,61 @@
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.379</v>
+        <v>0.384</v>
       </c>
       <c r="O14" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
         <v>13.8</v>
       </c>
       <c r="W14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2955,19 +3022,19 @@
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>7</v>
@@ -2988,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>8</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>28</v>
@@ -3146,10 +3213,10 @@
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3383,7 @@
         <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM16" t="n">
         <v>12</v>
@@ -3328,7 +3395,7 @@
         <v>26</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3346,10 +3413,10 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.475</v>
+        <v>0.463</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,10 +3481,10 @@
         <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.3</v>
@@ -3426,52 +3493,52 @@
         <v>15.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P17" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R17" t="n">
         <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="T17" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,13 +3547,13 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>14</v>
@@ -3507,10 +3574,10 @@
         <v>23</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>10</v>
@@ -3519,10 +3586,10 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AT17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3531,7 +3598,7 @@
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3540,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3668,7 +3735,7 @@
         <v>24</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>16</v>
@@ -3689,13 +3756,13 @@
         <v>20</v>
       </c>
       <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
         <v>11</v>
       </c>
-      <c r="AP18" t="n">
-        <v>10</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3713,7 +3780,7 @@
         <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>0.475</v>
+        <v>0.487</v>
       </c>
       <c r="H19" t="n">
         <v>48.8</v>
       </c>
       <c r="I19" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N19" t="n">
         <v>0.376</v>
       </c>
       <c r="O19" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P19" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R19" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T19" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U19" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V19" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W19" t="n">
         <v>6.8</v>
@@ -3826,31 +3893,31 @@
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB19" t="n">
         <v>99.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3859,7 +3926,7 @@
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>5</v>
@@ -3868,10 +3935,10 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>8</v>
@@ -3883,10 +3950,10 @@
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU19" t="n">
         <v>29</v>
@@ -3895,13 +3962,13 @@
         <v>12</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4083,19 +4150,19 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ20" t="n">
         <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB20" t="n">
         <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-3.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4250,7 +4317,7 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4396,10 +4463,10 @@
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4426,13 +4493,13 @@
         <v>15</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
@@ -4447,13 +4514,13 @@
         <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB22" t="n">
         <v>25</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
@@ -4578,13 +4645,13 @@
         <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4599,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4626,7 +4693,7 @@
         <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY23" t="n">
         <v>5</v>
@@ -4641,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -4757,10 +4824,10 @@
         <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>13</v>
@@ -4769,7 +4836,7 @@
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
         <v>12</v>
@@ -4793,13 +4860,13 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>25</v>
@@ -4814,7 +4881,7 @@
         <v>17</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>0.611</v>
+        <v>0.629</v>
       </c>
       <c r="H25" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I25" t="n">
         <v>38.5</v>
       </c>
       <c r="J25" t="n">
-        <v>77.3</v>
+        <v>77</v>
       </c>
       <c r="K25" t="n">
-        <v>0.498</v>
+        <v>0.5</v>
       </c>
       <c r="L25" t="n">
         <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.393</v>
+        <v>0.399</v>
       </c>
       <c r="O25" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="P25" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="R25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T25" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U25" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V25" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="W25" t="n">
         <v>6.4</v>
@@ -4918,31 +4985,31 @@
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.6</v>
+        <v>104.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
       </c>
       <c r="AF25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG25" t="n">
         <v>8</v>
       </c>
-      <c r="AG25" t="n">
-        <v>9</v>
-      </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4963,13 +5030,13 @@
         <v>3</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP25" t="n">
         <v>6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
@@ -4978,25 +5045,25 @@
         <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW25" t="n">
         <v>29</v>
       </c>
-      <c r="AW25" t="n">
-        <v>28</v>
-      </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -5037,49 +5104,49 @@
         <v>38</v>
       </c>
       <c r="E26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0.632</v>
+        <v>0.605</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M26" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>24.3</v>
+        <v>23.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="T26" t="n">
         <v>40.5</v>
@@ -5088,10 +5155,10 @@
         <v>20.5</v>
       </c>
       <c r="V26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
         <v>5.1</v>
@@ -5103,37 +5170,37 @@
         <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AD26" t="n">
         <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5145,7 +5212,7 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
@@ -5166,7 +5233,7 @@
         <v>14</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>22</v>
@@ -5175,19 +5242,19 @@
         <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5306,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -5351,13 +5418,13 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5673,25 +5740,25 @@
         <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5718,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>3.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -5852,7 +5919,7 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5873,10 +5940,10 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>13</v>
@@ -5885,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5897,7 +5964,7 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
         <v>16</v>
@@ -5909,13 +5976,13 @@
         <v>25</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-15-2008-09</t>
+          <t>2009-01-15</t>
         </is>
       </c>
     </row>
